--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\Papers\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE35E5D-2C06-4646-A748-124475D56CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BED78B-DC1D-4D19-83A6-BDEE40A1CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="234">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,14 @@
   </si>
   <si>
     <t>Operating System Scheduling On Heterogeneous Core Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">System Simulation; GPUs (Design Space Exploration, Cross-Platform Prediction,  GPU Specific Prediction &amp; Classification &amp; Scheduling); Memory Systems and Branch Prediction (Cache &amp; Schedulers &amp; Control), NoC, System-level Optimization, ML-Enabled Approximate Computing  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-I/O Scheduling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,6 +1173,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,15 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1482,7 +1490,7 @@
     <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.1328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.53125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -1506,14 +1514,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -2101,14 +2109,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
@@ -2534,14 +2542,14 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A27"/>
@@ -3054,14 +3062,14 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C40" s="8" t="s">
@@ -3484,14 +3492,14 @@
       </c>
     </row>
     <row r="61" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C62" s="21" t="s">
@@ -3509,7 +3517,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C63" s="7" t="s">
         <v>225</v>
       </c>
@@ -3518,6 +3526,9 @@
       </c>
       <c r="E63" s="7" t="s">
         <v>222</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
@@ -3562,24 +3573,24 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
-    </row>
-    <row r="73" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C73" s="7" t="s">
+    <row r="67" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C67" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C69" s="7" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C67:H67"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C26:H26"/>
@@ -3593,6 +3604,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -3736,15 +3756,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3754,6 +3765,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3767,14 +3786,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BED78B-DC1D-4D19-83A6-BDEE40A1CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAD49A-8FA5-4367-B7FB-B8127AC64975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="257">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,6 +951,98 @@
   </si>
   <si>
     <t>ML-I/O Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the Workshop on Operating System Support for Heterogeneous Multicore Architectures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average normalized IPC; Average cache affinity; the average cache miss rate of threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the expected future normalized IPC on that core (including no migration and has migration) /the expected discounted sum of future reinforcement signals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Process Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Memory Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reinforcement learning approach to dynamic resource allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineering Applications of Artificial Intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reinforcement learning framework for online data migration on in hierarchical storage systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The journal of Supercomputing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reinfrocement learning framework for utility-based scheduling in resource-constrained systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future Generation Computer Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applying machine learning techniques to improve Linux Process Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENCON 2005-2005 IEEE Region 10 Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict CPU burst time and do predictive scheduling to reduce Turn-around-time; Decision tree;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model/Method/Objective/Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning; Not mention specific basis functions; Scheduling on HMC system. Only a proposed feamework , no experiments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 attributes, in table 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +1050,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1085,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1120,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1190,6 +1291,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="G66" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1491,6 +1598,7 @@
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="34.53125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -3471,7 +3579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C60" s="18" t="s">
         <v>164</v>
       </c>
@@ -3508,7 +3616,9 @@
       <c r="D62" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="F62" s="21" t="s">
         <v>226</v>
       </c>
@@ -3531,7 +3641,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C64" s="7" t="s">
         <v>219</v>
       </c>
@@ -3545,7 +3655,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C65" s="7" t="s">
         <v>221</v>
       </c>
@@ -3559,7 +3669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C66" s="7" t="s">
         <v>223</v>
       </c>
@@ -3583,13 +3693,134 @@
       <c r="G67" s="23"/>
       <c r="H67" s="24"/>
     </row>
-    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:8" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C69" s="7" t="s">
         <v>231</v>
       </c>
+      <c r="D69" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C80" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C82" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C90" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C92" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C93" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="7">
+        <v>2008</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C94" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C98" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C98:H98"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
@@ -3604,15 +3835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -3756,6 +3978,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3765,14 +3996,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3786,6 +4009,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAD49A-8FA5-4367-B7FB-B8127AC64975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74015B7B-3A9C-495C-A9B0-E601ECA88106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="354">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,14 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A reinforcement learning approach to dynamic resource allocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engineering Applications of Artificial Intelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A reinforcement learning framework for online data migration on in hierarchical storage systems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,10 +1018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>predict CPU burst time and do predictive scheduling to reduce Turn-around-time; Decision tree;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model/Method/Objective/Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1038,11 +1026,414 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18 attributes, in table 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STS (Special Time Slice)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on knowledge and data engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Learning Disk Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Request Features; 6 workload features.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm2: selection of disk scheduler; Algorithm3: estimated response time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">predict CPU burst time and do predictive scheduling to reduce Turn-around-time; Decision tree deployed in user space; Use System call; Create the data set from the program’s run traces. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 4 learning algorithm: change-sensing round-robin; Feedbak learning (select best I/O scheduler, as classification task); Per-request I/O Scheduler (estimate response time, shortedt reponse time first); Combine both. Five basic machine learning models:  decision tree, logistic regression, naive Bayes, neural network, and support vector machine algorithms. Run different workloads to set up the dataset.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation and Optimization of Kernel File Readaheads Based on Markov Decision Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Computer Journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different states including read request, cache statesm readahead and page access.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost function including metrics like miss-hit cahce.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An absorbing MDP model for kernel prefetching; Model the whole process of file read handling as a markov decision process, use it to evaluate the performance. Performance data is collected by patching the kernel to trace every page's state.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lynx: A Learning Linux Prefetching Mechanism For SSD Performance Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5th Non-Volatile Memory Systems and Applications Symposium (NVMSA). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File page access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next file page access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on  Markov chains;  integrated it into the Linux kernel; Set up a transition table for each file; Aims to prefetch page; Use TPC-H benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Memory Access Patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Machine Learning. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat the address space as a large, discrete vocabulary, and perform classification. (NLP); Algorithm1: Embedding LSTM; Algorithm2: Use multi-task LSTM and kmeans; Data is collected by dynamic trace that contains the sequence of memory addresses. Predict cache miss (delta instead of address directly).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm1: Delta; Algorithm2: first cluster, different delta for different clusters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm1: 1. the sequence of instruction addresses (PCs); 2. delta; Algorithm2: 1. Raw virtual address 2. PCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applying Deep Learning to the Cache Replacement Problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 52nd Annual IEEE/ACM International Symposium on Microarchitecture.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Classification:  whether a PC tends to access lines that are cache-friendly or cache-averse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For LSTM: a sequence of loads identified by their PC; For SVM: k-sparse binary feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use deep learning to help design a cache replacement policy; Model:  LSTM with an attention mechanism; Analyze the result and propose an SVM based predictor; Use  33 memory sensitive applications;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience-Driven Congestion Control: When Multi-Path TCP Meets Deep Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow of states, where each state includes: sending rate, goodput, average RTT, the mean deviation of RTTs and the congestion window size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New state information include sending rate, goodput, average RTT, the mean deviation of RTTs and the congestion window size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement in Linux Kernel. Deep reinforcement learning for congestion control; Use LSTM to encode the current state; For actor network, use fully connected feed-forward neural network with 2 hidden layers. Use iPerf3 to produced sufficient transition samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kleio: A Hybrid Memory Page Scheduler with Machine
+ Intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Performance Distributed Systems (Best Paper Nominees)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence of the page accesses that were serviced from main memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of future accesses to each page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propose a page scheduler execute across hybrid memory components. Put hot pages in fast access and cold pages in slow access; Use tensor-flow to realize; in user-level. Trains an individual RNN for each of the important pages.  Data collection: traces of the data accesses that missed the last level of processor hardware caches and resulted in main memory accesses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepPrefetcher: A Deep Learning Framework for Data Prefetching in Flash Storage Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on computer-aided design of integrated circuits and systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD Features: the difference between successive access requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical block address (LBA) value next time stamp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM+Fully-connected layer; Dataset: MSR Cambridge Block I/O trace. Learn block access pattern for fast storage device.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-General</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning-based Memory Allocation for C++ Server Workloads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASPLOS’20</t>
+  </si>
+  <si>
+    <t>lifetime classes (10ms, 100ms …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack trace (treat each  frame in the stack trace as a string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM+softmax layer; Classification; predict object lifetime;execute in user space;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMLIB: Towards machine learning for operating systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop an ML library targeted for adoption within the kernel; Propose two modes: kernel mode and kernel-user memory shared mode. For the latter, trains in user space and inference in kernel space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinnOS: Predictability on Unpredictable Flash Storage with a Light Neural Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Proceedings of the 14th USENIX Symposium on Operating Systems Design and Implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast speed or slow speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of current pending I/Os; number of pending I/Os of 4 most-recently completed I/Os; Latency of 4 most-recently completed I/Os.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-space training and kernel level inference for revocation. Use different model for different devices. Dataset collection: The I/O metadata (block offset, size, read/write) and their resulting latencies are recorded using blktrace. Model:  a fully-connectedneural
+ network with only three layers (“light”), including one input/preprocess layer, one hidden layer, and one output layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning for Load Balancing in the Linux Kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 11th ACM SIGOPS Asia-Pacific Workshop on Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objective: average CPU utilization to balance work
+load between processor cores; Data collection:  use eBPF and BCC to collect the migration-related data of the running system through dynamic kernel tracing with kprobes. Model: use  multi-layer perceptron (MLP);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15 input features </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether a task should be migrated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Transactions on Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Storage Systems Using Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Features for readahead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For readahead- predicts the workload type (For example, readrandom, rwrandom, readseq, readreverse, readrandom and so on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readahead: training data- use LLTng to get trace data and run 4 different RocksDB benchmarks, each with 20 different readahead sizes (8–1024) (Features: 1-the number of transactions taking place each second, 2-the calculated cumulative moving mean and 3-the cumulative moving standard deviation of page offsets, 4-the mean absolute page offset differences for successive transactions, and 5-the inode number); Model:  three linear layers / Decision-tree models (both implemented).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Cache Replacement with Cacheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Proceedings of the 19th USENIX Conference on File and Storage Technologies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACME: Adaptive Caching Using Multiple Experts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotStorage 18</t>
+  </si>
+  <si>
+    <t>Driving Cache Replacement with ML-based LeCaR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online reinforcement learning with regret minimization, use two ideally complementary caching experts; Learning Rate Adaptation， evaluate the gradient of average hit-rate to adjust learning rate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requested page q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision of use which replacement algorithm to evict pages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toward Reconfigurable Kernel Datapaths with Learned Optimizations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-Device Intelligence Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the Workshop on Hot Topics in Operating Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconfigurable kernel datapaths; Each table represents a key decision point in the kernel datapath; Offline training using GPU/TPU, online training in OS user-space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiteFlow: Towards High-performance Adaptive Neural Networks for Kernel Datapath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the ACM SIGCOMM 2022 Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customized model in user space -&gt; model in kernel space (use quantization and code translation (approximation); Accumulate training data from kernel to user every time period.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiments on Congestion control, load balancing and flow scheduling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Resource Scheduling for Co-located Latency-critical Services: A Multi-Model Collaborative Learning Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21st USENIX Conference on File and Storage Technologies (FAST 23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put model in user-space, exchange infos to kernel space. Use MLP/DQN.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desciribed in Table 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model A: predicts the RCliffs
+ and OAAs; Model B: predicts the QoS variations and resource margins in co-location cases; Model C: balance A &amp; B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards a Machine Learning-Assisted Kernel with LAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 28th ACM International Conference on Architectural Support for Programming Languages and Operating Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has an API remoting system that exposes arbitrary APIs to kernel subsystems. Use shared memory to allow zero memory copy. Have a command channel to transmit parameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use of machine learning algorithms to rate and select the current best policies or mixtures of policies via weight updates based on their recent success; a pool of virtual caches to store information for different caching policies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only proof of concept, not really use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tune the file migration policies in order to minimize the average request response time; each storage tier (agent) learns its own
+long-term cost function C(s), which predicts the future average request response time divided by the file size </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The predicted future average request response time divided by the expected value of the file size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current state of the storage layers, which includes information such as the bandwidth of each storage layer and the size and location of the files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicts the average future utility per time step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Scheduling; Reinforcement learning framework; based on utility function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the dynamically observed state information (e.g. The number of free CPUs on the current machine, the average unit utility expected from the currently running job)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requested page q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The caching policies, updated cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> uses reinforcement online learning with regret minimization; select between LRU and LFU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1217,11 +1608,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,6 +1678,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1292,11 +1702,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG98"/>
+  <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G66" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1622,14 +2042,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -2217,14 +2637,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
@@ -2650,14 +3070,14 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A27"/>
@@ -3170,14 +3590,14 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C40" s="8" t="s">
@@ -3600,14 +4020,14 @@
       </c>
     </row>
     <row r="61" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C62" s="21" t="s">
@@ -3622,7 +4042,9 @@
       <c r="F62" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G62"/>
+      <c r="G62" s="30" t="s">
+        <v>258</v>
+      </c>
       <c r="H62" s="21" t="s">
         <v>230</v>
       </c>
@@ -3684,32 +4106,32 @@
       </c>
     </row>
     <row r="67" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="3:8" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="28" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G68" s="28" t="s">
+      <c r="F68" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G68" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H68" s="22" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3724,7 +4146,7 @@
         <v>234</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>239</v>
@@ -3733,94 +4155,496 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C80" s="22" t="s">
+    <row r="70" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C70" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C71" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C79" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-    </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C81" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C82" s="7" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="D82" s="7">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C90" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C89" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+    </row>
+    <row r="90" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C90" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C91" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="7">
+        <v>2008</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
       <c r="C92" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D92" s="7">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C93" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D93" s="7">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C94" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D94" s="7">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C98" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C95" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C96" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C97" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C98" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="32">
+        <v>2019</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C99" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="32">
+        <v>2020</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C100" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="34">
+        <v>2020</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C101" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="34">
+        <v>2021</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C102" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="34">
+        <v>2023</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C103" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C104" s="31"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+    </row>
+    <row r="106" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C106" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+    </row>
+    <row r="107" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C107" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C115" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="26"/>
+    </row>
+    <row r="116" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C116" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C117" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C118" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C119" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D119" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C98:H98"/>
+  <mergeCells count="10">
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C106:H106"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
@@ -3835,6 +4659,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -3978,15 +4811,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3996,6 +4820,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4009,14 +4841,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74015B7B-3A9C-495C-A9B0-E601ECA88106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD1676-24B5-49E3-B5DF-1EE8A6D55909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-130" yWindow="-130" windowWidth="19460" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="372">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,6 +1434,81 @@
   </si>
   <si>
     <t xml:space="preserve"> uses reinforcement online learning with regret minimization; select between LRU and LFU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Machine Learning Approach for Performance Prediction and Scheduling on Heterogeneous CPUs</t>
+  </si>
+  <si>
+    <t>29th International Symposium on Computer Architecture and High Performance Computing (SBAC-PAD).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Values in P4 (e.g. LD1, L1 Caches)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the estimated IPC that the thread is
+will achieve on a particular core during the next scheduling quantum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use the observed IPC in the current executing core performance estimate field, and use ANN based predictor to fill another. Model: fully connected and feedforward. Chooes the mapping with highest IPC. Evaluation is based on Sniper simulation platform.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicting thread profiles across core types via machine learning on heterogeneous multiprocessors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computing Systems Engineering (SBESC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread characterization features from PCA. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use principal component analysis (PCA) to reduce feature dimensions. Use support vector regression (SVR) for prediction. Use SSIM value as evaluation metric. Data collected by two hardware counters: extracted and picked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values of performance indicators, counters for the next time
+unit of a given thread execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A machine learningbased approach to estimate the cpu-burst time for processes in the computational grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Modelling and Simulation
+(AIMS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU burst times of whole jobs
+for computational grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scheduling based on machine learning for heterogeneous cpu/gpu systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NW Russia Young Researchers in Electrical and Electronic Engineering Conference (EIConRusNW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select whether to execute a task on a CPU or GPU based on the size of the input data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models: Support Vector Machine (SVM) and K-Nearest Neighbors (K-NN), Artificial Neural Networks (ANN) and Decision Trees (DT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Attributes: 1-Submit Time 2-Submit Time 3-Used Memory 4-Requested Time 5-Requested Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1621,11 +1696,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,6 +1772,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1702,21 +1803,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG119"/>
+  <dimension ref="A1:AG123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2042,14 +2137,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -2637,14 +2732,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
@@ -3070,14 +3165,14 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A27"/>
@@ -3590,14 +3685,14 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C40" s="8" t="s">
@@ -4020,14 +4115,14 @@
       </c>
     </row>
     <row r="61" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C62" s="21" t="s">
@@ -4042,7 +4137,7 @@
       <c r="F62" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="24" t="s">
         <v>258</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -4106,14 +4201,14 @@
       </c>
     </row>
     <row r="67" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
     </row>
     <row r="68" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C68" s="22" t="s">
@@ -4136,26 +4231,26 @@
       </c>
     </row>
     <row r="69" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="35">
         <v>2007</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="35" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" s="37" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C70" s="7" t="s">
         <v>255</v>
       </c>
@@ -4176,34 +4271,34 @@
       </c>
     </row>
     <row r="71" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="36">
         <v>2020</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="36" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="31"/>
     </row>
     <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C81" s="7" t="s">
@@ -4227,430 +4322,504 @@
     </row>
     <row r="82" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C82" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2015</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C83" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C84" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C85" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C86" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D86" s="7">
         <v>2020</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="24" t="s">
+    <row r="93" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C93" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-    </row>
-    <row r="90" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C90" s="7" t="s">
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C94" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D94" s="7">
         <v>2002</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C91" s="7" t="s">
+    <row r="95" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C95" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D95" s="7">
         <v>2008</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="C92" s="7" t="s">
+    <row r="96" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="C96" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D96" s="7">
         <v>2009</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C93" s="7" t="s">
+    <row r="97" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C97" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D97" s="7">
         <v>2011</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C94" s="7" t="s">
+    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C98" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D98" s="7">
         <v>2016</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C95" s="7" t="s">
+    <row r="99" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C99" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D99" s="7">
         <v>2018</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C96" s="7" t="s">
+    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C100" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D100" s="7">
         <v>2018</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C97" s="7" t="s">
+    <row r="101" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C101" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D101" s="7">
         <v>2019</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C98" s="31" t="s">
+    <row r="102" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C102" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D102" s="7">
         <v>2019</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E102" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F102" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="G98" s="31" t="s">
+      <c r="G102" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H102" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C99" s="31" t="s">
+    <row r="103" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C103" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D103" s="7">
         <v>2020</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E103" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F103" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="G103" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="H99" s="31" t="s">
+      <c r="H103" s="25" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C100" s="31" t="s">
+    <row r="104" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C104" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="34">
+      <c r="D104" s="27">
         <v>2020</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E104" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="F100" s="31" t="s">
+      <c r="F104" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="G100" s="31" t="s">
+      <c r="G104" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="H100" s="31" t="s">
+      <c r="H104" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C101" s="31" t="s">
+    <row r="105" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C105" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="D101" s="34">
+      <c r="D105" s="27">
         <v>2021</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F105" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="G105" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="H105" s="25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C102" s="31" t="s">
+    <row r="106" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C106" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="D102" s="34">
+      <c r="D106" s="27">
         <v>2023</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F106" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G106" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H106" s="25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C103" s="7" t="s">
+    <row r="107" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C107" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D107" s="7">
         <v>2023</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C104" s="31"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-    </row>
-    <row r="106" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C106" s="24" t="s">
+    <row r="108" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+    </row>
+    <row r="110" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C110" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="26"/>
-    </row>
-    <row r="107" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C107" s="7" t="s">
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="31"/>
+    </row>
+    <row r="111" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C111" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D111" s="7">
         <v>2019</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C115" s="24" t="s">
+    <row r="119" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C119" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="26"/>
-    </row>
-    <row r="116" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C116" s="7" t="s">
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="31"/>
+    </row>
+    <row r="120" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C120" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D120" s="7">
         <v>2020</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F120" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C117" s="7" t="s">
+    <row r="121" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C121" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D121" s="7">
         <v>2021</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C118" s="7" t="s">
+    <row r="122" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C122" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D122" s="7">
         <v>2022</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E122" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F122" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C119" s="7" t="s">
+    <row r="123" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C123" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D123" s="7">
         <v>2023</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C67:H67"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C67:H67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4659,15 +4828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -4811,6 +4971,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4820,14 +4989,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4841,6 +5002,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD1676-24B5-49E3-B5DF-1EE8A6D55909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D411E1DF-5592-4A92-A511-0C34370F6040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="-130" windowWidth="19460" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="462">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,23 +1492,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The scheduling based on machine learning for heterogeneous cpu/gpu systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NW Russia Young Researchers in Electrical and Electronic Engineering Conference (EIConRusNW)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select whether to execute a task on a CPU or GPU based on the size of the input data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Models: Support Vector Machine (SVM) and K-Nearest Neighbors (K-NN), Artificial Neural Networks (ANN) and Decision Trees (DT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 Attributes: 1-Submit Time 2-Submit Time 3-Used Memory 4-Requested Time 5-Requested Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiperspective Reuse Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017 50th Annual IEEE/ACM International Symposium on Microarchitecture (MICRO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perceptron learning for reuse prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016 49th Annual IEEE/ACM International Symposium on Microarchitecture (MICRO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use economic value added (EVA) to determine which candidate should be replaced. Record the age distribution and calculate EVA through this distribution. No need to update in real-time. (Define hit rate in a clear and concise way); Markov decision process.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perceptron-based prefetch filtering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 46th International Symposium on Computer Architecture.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache prefetch; Perceptron learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache replacement; Perceptron learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Cache Prefetching with Perceptron Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arXiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semantic locality and context-based prefetching using
+ reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015 ACM/IEEE 42nd Annual International Symposium on Computer Architecture (ISCA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning; cache prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understanding Memory Access Patterns for Prefetching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Workshop on AI-assisted Design for Architecture (AIDArc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM; Cache prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Neural Hierarchical Sequence Model for Irregular Data Prefetching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache prefetch; LTSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long short term memory based hardware prefetcher: A case study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the International Symposium on Memory Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache prefetch; LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reinforcement learning for thermal-aware many-core task allocation. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 25th edition on Great Lakes Symposium on VLSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning; Task allocation in many-core systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Placement Optimization for Multi-chip Many-core Neural Network Systems with Reinforcement Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Transactions on Design Automation of Electronic Systems (TODAES) 26</t>
+  </si>
+  <si>
+    <t>Task allocation in many-core systems; Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive job routing and scheduling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling jobs in single-core processors; Q-Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineering Applications of Artificial
+ Intelligence 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating system scheduling on heterogeneous
+ core systems. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proceedings of the Workshop on Operating System Support for Heterogeneous Multicore Architectures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value-based reinforcement learning; Scheduling jobs in multi-processor systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troodon: A machine-learning based load-balancing application scheduler for CPU–GPU system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel and Distrib. Comput. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Improvising process scheduling using machine learning. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A ML-Based Runtime System for Executing Dataflow Graphs on Heterogeneous Processors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the ACM Symposium on Cloud Computing (Carlsbad, CA, USA) (SoCC ’18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductive-bias-driven reinforcement learning for efficient schedules in heterogeneous clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 37th International Conference on Machine Learning. PMLR 119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWARE: Automate Workload Autoscaling with Reinforcement Learning in Production Cloud Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 USENIX Annual Technical Conference (USENIX ATC 23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IONET: Towards an Open Machine Learning Training Groundfor I/O Performance Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical Report 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work-In-Progress: A Deep Learning Strategy for
+I/O Scheduling in Storage Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 IEEE Real-Time Systems Symposium (RTSS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Request Scheduling for the I/O Forwarding
+Layer using Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy-eficient Application Resource Scheduling using
+Machine Learning Classifiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 47th International Conference on Parallel Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards Scalable Deep Learning via I/O Analysis and Optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (HPCC/SmartCity/DSS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigating machine learning algorithms for modeling ssd i/o performance for container-based virtualization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE transactions on cloud computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic I/O scheduling algorithm selection for parallel file systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concurrency and Computation: Practice and Experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy-aware systems for real-time job scheduling in cloud data centers: A deep reinforcement learning approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computers and Electrical Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHDFS: Optimizing I/O performance of HDFS in deep learning cloud computing platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of Systems Architecture</t>
+  </si>
+  <si>
+    <t>Clairvoyant prefetching for distributed machine learning I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical learning based congestion control for real-time video communication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build a statistical function between the sending rate and RTT and adjust the sending rate based on the linear regression given the estimated RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCP: adaptive congestion control protocol in named data networking based on deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural Computing and Applications</t>
+  </si>
+  <si>
+    <t>Calculate the average queue length based on the prediction of pending interest table entries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centralized and localized data congestion control strategy for vehicular ad hoc networks using a machine learning clustering algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Trans. Intell. Transp. Syst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model: k-means; Cluster the data into groups based on message size, validity of messages, distance between vehicles and RSUs, types of message and direction of message sender and assign a sending rate for each cluste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A congestion control method of SDN data center based on reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int. J. Communication Systems</t>
+  </si>
+  <si>
+    <t>Q-learning-Train an off-policy method based Q learning and an
+online-policy method based on Sarsa to control congestion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep reinforcement
+learning based congestion control mechanism for NDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE International Conference on Communications</t>
+  </si>
+  <si>
+    <t>Learn an optimal CC policy by taking the diversified contents
+in NDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving TCP congestion control with machine intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 2018 Workshop on Network Meets AI &amp; ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acknowledgement inter-arrival time, packet inter-sending
+time, the ratio of the current RTT, minimum RTT, the slow start
+threshold and CWND size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjustment information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience-driven congestion control: When multi-path TCP meets deep reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE J. Sel. Areas Commun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network with time-varying flows; LSTM-based representation networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic TCP initial windows and congestion control schemes through reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE J. Sel. Areas Commun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employ the RL algorithm to configure the initial window and CC policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement learning-based variable speed limit control strategy to reduce traffic congestion at freeway recurrent bottlenecks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Trans. Intell. Transp. Syst</t>
+  </si>
+  <si>
+    <t>Detect network and data patterns such as latency to get the necessary adjustment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1623,7 +1988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1709,11 +2074,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1785,14 +2181,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1803,14 +2200,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2099,24 +2524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG123"/>
+  <dimension ref="A1:AG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.53125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2136,17 +2561,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -2191,7 +2616,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -2236,7 +2661,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -2281,7 +2706,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -2326,7 +2751,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -2371,7 +2796,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -2416,7 +2841,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -2461,7 +2886,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -2506,7 +2931,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -2551,7 +2976,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -2596,7 +3021,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -2641,7 +3066,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -2686,7 +3111,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -2731,17 +3156,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -2788,7 +3213,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -2835,7 +3260,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -2882,7 +3307,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -2929,7 +3354,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="8" t="s">
@@ -2976,7 +3401,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
@@ -3023,7 +3448,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="8" t="s">
@@ -3070,7 +3495,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="10" t="s">
@@ -3117,7 +3542,7 @@
       <c r="AF24"/>
       <c r="AG24"/>
     </row>
-    <row r="25" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="10" t="s">
@@ -3164,17 +3589,17 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C26" s="29" t="s">
+    <row r="26" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
@@ -3221,7 +3646,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="12" t="s">
@@ -3268,7 +3693,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
@@ -3315,7 +3740,7 @@
       <c r="AF29"/>
       <c r="AG29"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="10" t="s">
@@ -3362,7 +3787,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="12" t="s">
@@ -3409,7 +3834,7 @@
       <c r="AF31"/>
       <c r="AG31"/>
     </row>
-    <row r="32" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="12" t="s">
@@ -3456,7 +3881,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -3503,7 +3928,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="10" t="s">
@@ -3550,7 +3975,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="12" t="s">
@@ -3597,7 +4022,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -3644,7 +4069,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C37" s="12" t="s">
         <v>95</v>
       </c>
@@ -3664,7 +4089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C38" s="12" t="s">
         <v>96</v>
       </c>
@@ -3684,17 +4109,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C39" s="29" t="s">
+    <row r="39" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>200</v>
       </c>
@@ -3714,7 +4139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C41" s="8" t="s">
         <v>197</v>
       </c>
@@ -3734,7 +4159,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>210</v>
       </c>
@@ -3754,7 +4179,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C43" s="18" t="s">
         <v>212</v>
       </c>
@@ -3774,7 +4199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>162</v>
       </c>
@@ -3794,7 +4219,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="16" t="s">
         <v>188</v>
       </c>
@@ -3814,7 +4239,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3834,7 +4259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C47" s="8" t="s">
         <v>146</v>
       </c>
@@ -3854,7 +4279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
         <v>174</v>
       </c>
@@ -3874,7 +4299,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C49" s="8" t="s">
         <v>145</v>
       </c>
@@ -3894,7 +4319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C50" s="8" t="s">
         <v>178</v>
       </c>
@@ -3914,7 +4339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C51" s="8" t="s">
         <v>190</v>
       </c>
@@ -3934,7 +4359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C52" s="8" t="s">
         <v>142</v>
       </c>
@@ -3954,7 +4379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>193</v>
       </c>
@@ -3974,7 +4399,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C54" s="8" t="s">
         <v>168</v>
       </c>
@@ -3994,7 +4419,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>181</v>
       </c>
@@ -4014,7 +4439,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C56" s="18" t="s">
         <v>207</v>
       </c>
@@ -4034,7 +4459,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>156</v>
       </c>
@@ -4054,7 +4479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>185</v>
       </c>
@@ -4074,7 +4499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C59" s="8" t="s">
         <v>159</v>
       </c>
@@ -4094,7 +4519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C60" s="18" t="s">
         <v>164</v>
       </c>
@@ -4114,17 +4539,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C61" s="29" t="s">
+    <row r="61" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C61" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-    </row>
-    <row r="62" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C62" s="21" t="s">
         <v>0</v>
       </c>
@@ -4144,7 +4569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C63" s="7" t="s">
         <v>225</v>
       </c>
@@ -4158,7 +4583,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C64" s="7" t="s">
         <v>219</v>
       </c>
@@ -4172,7 +4597,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
         <v>221</v>
       </c>
@@ -4186,7 +4611,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7" t="s">
         <v>223</v>
       </c>
@@ -4200,17 +4625,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C67" s="29" t="s">
+    <row r="67" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C67" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
-    </row>
-    <row r="68" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="22" t="s">
         <v>0</v>
       </c>
@@ -4230,27 +4655,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C69" s="35" t="s">
+    <row r="69" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C69" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="29">
         <v>2007</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="G69" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="3:8" s="37" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" s="31" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
         <v>255</v>
       </c>
@@ -4270,556 +4695,1054 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C71" s="36" t="s">
+    <row r="71" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C71" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="30">
+        <v>2016</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C72" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="D72" s="30">
+        <v>2017</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+    </row>
+    <row r="73" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C73" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="D73" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+    </row>
+    <row r="74" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C74" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+    </row>
+    <row r="75" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C75" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D71" s="36">
+      <c r="D75" s="30">
         <v>2020</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E75" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="F75" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="36" t="s">
+      <c r="G75" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="36" t="s">
+      <c r="H75" s="30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C79" s="29" t="s">
+    <row r="76" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C76" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+    </row>
+    <row r="77" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C77" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+    </row>
+    <row r="78" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C78" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C79" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D79" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C81" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="31"/>
-    </row>
-    <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C81" s="7" t="s">
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C82" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2004</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C83" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D83" s="7">
         <v>2005</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C82" s="7" t="s">
+    <row r="84" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C84" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C85" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D85" s="7">
         <v>2015</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C86" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" s="31" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C87" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C88" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="3:8" s="42" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C89" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C90" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C92" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C93" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D93" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C94" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C96" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C97" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C98" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="7">
+        <v>2008</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="112" x14ac:dyDescent="0.3">
+      <c r="C99" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C100" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2011</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C101" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="7">
+        <v>2015</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C102" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D102" s="7">
+        <v>2015</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C103" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C104" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D104" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C105" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D105" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C83" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="F105" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" s="39" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C107" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="40">
+        <v>2017</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+    </row>
+    <row r="108" spans="3:8" s="39" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C108" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="D108" s="40">
+        <v>2017</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+    </row>
+    <row r="109" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C109" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C110" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C111" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C112" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C113" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D113" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="C114" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C115" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+    </row>
+    <row r="116" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C116" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C117" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D117" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E117" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="F117" t="s">
+        <v>396</v>
+      </c>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+    </row>
+    <row r="118" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C118" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="27">
+        <v>2020</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C119" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" s="27">
+        <v>2021</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="H119" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C120" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C121" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D121" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C122" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D122" s="26"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+    </row>
+    <row r="124" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C124" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="45"/>
+    </row>
+    <row r="125" spans="3:8" s="46" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C125" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="46">
         <v>2016</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C84" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D84" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C85" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="E125" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F125" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" s="47" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C126" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" s="48">
         <v>2017</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C86" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="E126" t="s">
+        <v>460</v>
+      </c>
+      <c r="F126" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+    </row>
+    <row r="127" spans="3:8" s="47" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C127" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="D127" s="48">
+        <v>2018</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="F127" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+    </row>
+    <row r="128" spans="3:8" s="47" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+      <c r="C128" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="D128" s="48">
+        <v>2018</v>
+      </c>
+      <c r="E128" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F128" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="G128" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="H128" s="48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C129" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D129" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G129" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C130" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C131" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C132" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D132" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E132" t="s">
+        <v>437</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C133" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="D133" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C134" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C138" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
+    </row>
+    <row r="139" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C139" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D139" s="7">
         <v>2020</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C93" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
-    </row>
-    <row r="94" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C94" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D94" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C95" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D95" s="7">
-        <v>2008</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="C96" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D96" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C97" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C98" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C99" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D99" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C100" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C101" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D101" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C102" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C103" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D103" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="G103" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H103" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C104" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D104" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E104" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C105" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D105" s="27">
+      <c r="E139" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C140" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D140" s="7">
         <v>2021</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H105" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C106" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D106" s="27">
+      <c r="E140" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C141" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D141" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C142" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" s="7">
         <v>2023</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C107" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-    </row>
-    <row r="110" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C110" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="31"/>
-    </row>
-    <row r="111" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C111" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C119" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="31"/>
-    </row>
-    <row r="120" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C120" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D120" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C121" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D121" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C122" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D122" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="123" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C123" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D123" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E123" s="7" t="s">
+      <c r="E142" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C67:H67"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C67:H67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4828,6 +5751,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -4971,15 +5903,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4989,6 +5912,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5002,14 +5933,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary.xlsx
+++ b/ML Apply in OS/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D411E1DF-5592-4A92-A511-0C34370F6040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C493CF-AC2B-4C6B-AB07-3F6C24508206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="467">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1874,6 +1874,27 @@
   </si>
   <si>
     <t>Detect network and data patterns such as latency to get the necessary adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reinforcement learning framework for online data
+migration in hierarchical storage systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Journal of Supercomputing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance-Effective and Low Complexity Task Scheduling for Heterogeneous Computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Scheduling based on machine learning for heterogeneous CPU/GPU systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransforMAP: Transformer for Memory Access Prediction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1987,8 +2008,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2105,11 +2138,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,13 +2216,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2190,6 +2225,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2209,14 +2279,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2226,17 +2288,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2524,24 +2594,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG142"/>
+  <dimension ref="A1:AG146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.46484375" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2561,17 +2631,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="33" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -2616,7 +2686,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -2661,7 +2731,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -2706,7 +2776,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -2751,7 +2821,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -2796,7 +2866,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -2841,7 +2911,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -2886,7 +2956,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -2931,7 +3001,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -2976,7 +3046,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -3021,7 +3091,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -3066,7 +3136,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -3111,7 +3181,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -3156,17 +3226,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="36" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -3213,7 +3283,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -3260,7 +3330,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -3307,7 +3377,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -3354,73 +3424,40 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2006</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-    </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" s="52" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C21" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="53">
+        <v>2002</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2009</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>22</v>
+      <c r="C22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2006</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -3448,26 +3485,26 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2009</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>65</v>
+      <c r="H23" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -3495,26 +3532,26 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>70</v>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -3542,26 +3579,26 @@
       <c r="AF24"/>
       <c r="AG24"/>
     </row>
-    <row r="25" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="10">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>133</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -3589,83 +3626,83 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="36" t="s">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+    </row>
+    <row r="27" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1989</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-    </row>
-    <row r="28" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1994</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>110</v>
+      <c r="C28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -3693,26 +3730,26 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1997</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>22</v>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1994</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -3740,26 +3777,26 @@
       <c r="AF29"/>
       <c r="AG29"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1999</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1997</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>86</v>
+      <c r="F30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -3787,26 +3824,26 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2002</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>110</v>
+      <c r="C31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1999</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -3834,26 +3871,26 @@
       <c r="AF31"/>
       <c r="AG31"/>
     </row>
-    <row r="32" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="12">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -3881,26 +3918,26 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="12">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -3928,26 +3965,26 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34"/>
-      <c r="C34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2006</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>86</v>
+      <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2004</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -3975,26 +4012,26 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35"/>
-      <c r="C35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="12">
-        <v>2007</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>106</v>
+      <c r="C35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2006</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -4022,26 +4059,26 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="12">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -4069,128 +4106,155 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37"/>
       <c r="C37" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="12">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+    </row>
+    <row r="38" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C38" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="12">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2018</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C39" s="36" t="s">
+    <row r="40" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C40" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C41" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>1990</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C41" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="16">
-        <v>1993</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C42" s="18" t="s">
+    <row r="42" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1993</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C43" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="19">
         <v>1994</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F43" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C43" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>206</v>
@@ -4199,1550 +4263,1611 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C44" s="19" t="s">
+    <row r="44" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C44" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C45" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <v>2008</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F45" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G45" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H45" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C45" s="16" t="s">
+    <row r="46" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C46" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>2010</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C46" s="8" t="s">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C47" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2010</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C47" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D47" s="8">
         <v>2010</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>155</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C48" s="8" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8">
         <v>2010</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2010</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C49" s="8" t="s">
+    <row r="50" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C50" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2011</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C50" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D50" s="8">
         <v>2011</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C51" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C52" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2012</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C52" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D52" s="8">
         <v>2012</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C53" s="8" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="D53" s="8">
         <v>2012</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C54" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2012</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C54" s="8" t="s">
+    <row r="55" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C55" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>2013</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C55" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="8">
-        <v>2014</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>171</v>
       </c>
       <c r="H55" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C56" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C56" s="18" t="s">
+    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C57" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <v>2015</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E57" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F57" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G57" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H57" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C57" s="8" t="s">
+    <row r="58" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C58" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C58" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="D58" s="8">
         <v>2017</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C59" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C59" s="8" t="s">
+    <row r="60" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C60" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <v>2018</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H60" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C60" s="18" t="s">
+    <row r="61" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C61" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="18">
         <v>2019</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E61" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F61" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H61" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C61" s="36" t="s">
+    <row r="62" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C62" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C62" s="21" t="s">
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+    </row>
+    <row r="63" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="C63" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D63" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E63" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F63" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G63" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C63" s="7" t="s">
+    <row r="64" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C64" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D63" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C64" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="D64" s="7">
         <v>2019</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C65" s="7" t="s">
+    <row r="66" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C66" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="7">
         <v>2021</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="7" t="s">
+    <row r="67" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="7">
         <v>2022</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C67" s="36" t="s">
+    <row r="68" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C68" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="22" t="s">
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
+    </row>
+    <row r="69" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C69" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D69" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E69" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F69" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G69" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H69" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C69" s="29" t="s">
+    <row r="70" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C70" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D70" s="26">
         <v>2007</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E70" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F70" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G70" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H70" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="3:8" s="31" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C70" s="7" t="s">
+    <row r="71" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C71" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="26">
+        <v>2008</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C72" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D72" s="7">
         <v>2009</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C71" s="30" t="s">
+    <row r="73" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C73" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D73" s="27">
         <v>2016</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E73" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-    </row>
-    <row r="72" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C72" s="30" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C74" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D74" s="27">
         <v>2017</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E74" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-    </row>
-    <row r="73" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C73" s="30" t="s">
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C75" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D75" s="27">
         <v>2019</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E75" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F75" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-    </row>
-    <row r="74" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C74" s="30" t="s">
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C76" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D76" s="27">
         <v>2019</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E76" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-    </row>
-    <row r="75" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C75" s="30" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C77" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D77" s="27">
         <v>2020</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E77" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F77" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="G75" s="30" t="s">
+      <c r="G77" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="H75" s="30" t="s">
+      <c r="H77" s="27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C76" s="30" t="s">
+    <row r="78" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C78" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D78" s="27">
         <v>2020</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E78" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-    </row>
-    <row r="77" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C77" s="30" t="s">
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C79" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D79" s="27">
         <v>2020</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E79" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F79" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-    </row>
-    <row r="78" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C78" s="7" t="s">
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C80" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D80" s="7">
         <v>2021</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C79" s="7" t="s">
+    <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C81" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D81" s="7">
         <v>2021</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C81" s="36" t="s">
+    <row r="83" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C83" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
-    </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C82" s="7" t="s">
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
+    </row>
+    <row r="84" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C84" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D84" s="7">
         <v>2004</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C83" s="7" t="s">
+    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C85" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D85" s="7">
         <v>2005</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C84" s="7" t="s">
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C86" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D86" s="7">
         <v>2007</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C85" s="7" t="s">
+    <row r="87" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C87" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D87" s="7">
         <v>2015</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C86" s="7" t="s">
+    <row r="88" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C88" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D88" s="7">
         <v>2016</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="3:8" s="31" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C87" s="32" t="s">
+    <row r="89" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C89" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C90" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D90" s="7">
         <v>2017</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C88" s="32" t="s">
+    <row r="91" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C91" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D91" s="7">
         <v>2018</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="3:8" s="42" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C89" s="32" t="s">
+    </row>
+    <row r="92" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C92" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D92" s="7">
         <v>2018</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="3:8" s="42" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C90" s="32" t="s">
+    </row>
+    <row r="93" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C93" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D93" s="7">
         <v>2019</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C91" s="7" t="s">
+    </row>
+    <row r="94" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C94" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D94" s="7">
         <v>2020</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C92" s="7" t="s">
+    <row r="95" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C95" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D95" s="7">
         <v>2020</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C93" s="7" t="s">
+    <row r="96" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C96" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D96" s="7">
         <v>2022</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C94" s="7" t="s">
+    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C97" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D97" s="7">
         <v>2023</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C96" s="36" t="s">
+    <row r="99" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C99" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="38"/>
-    </row>
-    <row r="97" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C97" s="7" t="s">
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="48"/>
+    </row>
+    <row r="100" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C100" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D100" s="10">
         <v>2002</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E100" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F100" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G100" s="10" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="98" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C98" s="7" t="s">
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C101" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D101" s="33">
         <v>2008</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E101" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F101" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G101" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H101" s="33" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="112" x14ac:dyDescent="0.3">
-      <c r="C99" s="7" t="s">
+    <row r="102" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="C102" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D102" s="33">
         <v>2009</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E102" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F102" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G102" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H102" s="33" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C100" s="7" t="s">
+    <row r="103" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C103" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D103" s="41">
         <v>2011</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E103" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F103" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G103" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H103" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C101" s="7" t="s">
+    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C104" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D104" s="33">
         <v>2015</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E104" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F104" s="33" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="102" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C102" s="7" t="s">
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+    </row>
+    <row r="105" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C105" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D105" s="33">
         <v>2015</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E105" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F105" s="33" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C103" s="7" t="s">
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+    </row>
+    <row r="106" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C106" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D106" s="41">
         <v>2016</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E106" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F106" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G106" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H106" s="41" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C104" s="7" t="s">
+    <row r="107" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C107" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D107" s="10">
         <v>2016</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E107" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F107" s="10" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C105" s="7" t="s">
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C108" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D108" s="10">
         <v>2017</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E108" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F108" s="10" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="7" t="s">
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C109" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D109" s="10">
         <v>2017</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E109" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F109" s="10" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="107" spans="3:8" s="39" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C107" s="40" t="s">
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C110" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="40">
+      <c r="D110" s="41">
         <v>2017</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E110" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="F110" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-    </row>
-    <row r="108" spans="3:8" s="39" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C108" s="40" t="s">
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+    </row>
+    <row r="111" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C111" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D108" s="40">
+      <c r="D111" s="8">
         <v>2017</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E111" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="F108" s="40" t="s">
+      <c r="F111" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-    </row>
-    <row r="109" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C109" s="7" t="s">
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C112" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D112" s="8">
         <v>2018</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E112" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F112" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G112" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H112" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C110" s="7" t="s">
+    <row r="113" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C113" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D113" s="10">
         <v>2018</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E113" s="10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C111" s="7" t="s">
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C114" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D114" s="33">
         <v>2018</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E114" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F114" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G114" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H114" s="33" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C112" s="7" t="s">
+    <row r="115" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C115" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D115" s="8">
         <v>2019</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E115" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F115" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G115" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H115" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C113" s="7" t="s">
+    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C116" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D116" s="10">
         <v>2019</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E116" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F116" s="10" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="114" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C114" s="25" t="s">
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C117" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D117" s="8">
         <v>2019</v>
       </c>
-      <c r="E114" s="25" t="s">
+      <c r="E117" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F117" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G117" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H117" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C115" s="25" t="s">
+    <row r="118" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C118" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D118" s="8">
         <v>2019</v>
       </c>
-      <c r="E115" s="25" t="s">
+      <c r="E118" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F118" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-    </row>
-    <row r="116" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C116" s="25" t="s">
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C119" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D119" s="8">
         <v>2020</v>
       </c>
-      <c r="E116" s="25" t="s">
+      <c r="E119" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F119" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G119" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H119" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C117" s="25" t="s">
+    <row r="120" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C120" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D120" s="33">
         <v>2020</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="E120" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F120" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-    </row>
-    <row r="118" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C118" s="25" t="s">
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+    </row>
+    <row r="121" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C121" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D118" s="27">
+      <c r="D121" s="38">
         <v>2020</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E121" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F121" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G121" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H121" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="119" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C119" s="25" t="s">
+    <row r="122" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C122" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="D119" s="27">
+      <c r="D122" s="40">
         <v>2021</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E122" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F122" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="G119" s="25" t="s">
+      <c r="G122" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H122" s="34" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C120" s="25" t="s">
+    <row r="123" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C123" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="D123" s="55">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="59"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+    </row>
+    <row r="124" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C124" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D120" s="27">
+      <c r="D124" s="57">
         <v>2023</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E124" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="F120" s="25" t="s">
+      <c r="F124" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="G120" s="25" t="s">
+      <c r="G124" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H124" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C121" s="7" t="s">
+    <row r="125" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C125" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D125" s="10">
         <v>2023</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E125" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F125" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G125" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H125" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C122" s="25" t="s">
+    <row r="126" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C126" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D122" s="26"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25" t="s">
+      <c r="D126" s="37"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-    </row>
-    <row r="124" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C124" s="43" t="s">
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="128" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C128" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="45"/>
-    </row>
-    <row r="125" spans="3:8" s="46" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C125" s="46" t="s">
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="51"/>
+    </row>
+    <row r="129" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C129" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="D125" s="46">
+      <c r="D129" s="25">
         <v>2016</v>
       </c>
-      <c r="E125" s="46" t="s">
+      <c r="E129" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F129" s="25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="3:8" s="47" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C126" s="48" t="s">
+    <row r="130" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C130" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="D126" s="48">
+      <c r="D130" s="31">
         <v>2017</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E130" t="s">
         <v>460</v>
       </c>
-      <c r="F126" s="48" t="s">
+      <c r="F130" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-    </row>
-    <row r="127" spans="3:8" s="47" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C127" s="48" t="s">
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+    </row>
+    <row r="131" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C131" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D127" s="48">
+      <c r="D131" s="31">
         <v>2018</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="E131" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="F127" s="48" t="s">
+      <c r="F131" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-    </row>
-    <row r="128" spans="3:8" s="47" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C128" s="48" t="s">
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+    </row>
+    <row r="132" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C132" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D128" s="48">
+      <c r="D132" s="31">
         <v>2018</v>
       </c>
-      <c r="E128" s="49" t="s">
+      <c r="E132" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="F128" s="48" t="s">
+      <c r="F132" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="G128" s="48" t="s">
+      <c r="G132" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="H128" s="48" t="s">
+      <c r="H132" s="31" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C129" s="30" t="s">
+    <row r="133" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C133" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D129" s="30">
+      <c r="D133" s="27">
         <v>2019</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E133" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F129" s="30" t="s">
+      <c r="F133" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="G129" s="30" t="s">
+      <c r="G133" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="30" t="s">
+      <c r="H133" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C130" s="7" t="s">
+    <row r="134" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C134" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="D130" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C131" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D131" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C132" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="D132" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E132" t="s">
-        <v>437</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C133" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D133" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C134" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="D134" s="7">
         <v>2019</v>
       </c>
       <c r="E134" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C135" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D135" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C136" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D136" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E136" t="s">
+        <v>437</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C137" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="D137" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D138" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F138" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C138" s="36" t="s">
+    <row r="142" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C142" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="38"/>
-    </row>
-    <row r="139" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C139" s="7" t="s">
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="48"/>
+    </row>
+    <row r="143" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C143" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D143" s="7">
         <v>2020</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E143" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C140" s="7" t="s">
+    <row r="144" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C144" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D144" s="7">
         <v>2021</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E144" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F144" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C141" s="7" t="s">
+    <row r="145" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C145" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D145" s="7">
         <v>2022</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E145" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F145" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G145" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C142" s="7" t="s">
+    <row r="146" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C146" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D146" s="7">
         <v>2023</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E146" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F146" s="7" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C68:H68"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C62:H62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
